--- a/カレンダー_単体テスト.xlsx
+++ b/カレンダー_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94D5F45B-77D6-41BD-83BD-7CE718683A42}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EA30B5-6322-4E35-A826-E650B60242D6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="4070" yWindow="1130" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="カレンダー" sheetId="3" r:id="rId1"/>
@@ -2899,19 +2899,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントのタイトル名と期間で登録されている</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.ログイン情報を入力し、「ログイン」ボタンを押す</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
@@ -2963,22 +2950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントタイトル、開催日、参加人数が表示されている</t>
-    <rPh sb="9" eb="12">
-      <t>カイサイビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
     <rPh sb="18" eb="20">
       <t>ソンザイ</t>
@@ -3035,6 +3006,41 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントタイトル、開催日時、参加人数が表示されている</t>
+    <rPh sb="9" eb="11">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントのタイトル名と開催期間で登録されている</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3116,7 +3122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3136,9 +3142,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4648,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4700,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4747,13 +4750,13 @@
         <v>219</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="G8" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>175</v>
@@ -4766,7 +4769,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -4785,13 +4788,13 @@
         <v>225</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G10" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>175</v>
@@ -4804,7 +4807,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -4823,13 +4826,13 @@
         <v>220</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G12" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>175</v>
@@ -4842,7 +4845,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -4861,13 +4864,13 @@
         <v>228</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G14" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>175</v>
@@ -4880,7 +4883,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -4899,13 +4902,13 @@
         <v>230</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G16" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>175</v>
@@ -4918,7 +4921,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4937,13 +4940,13 @@
         <v>221</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>231</v>
       </c>
       <c r="G18" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>175</v>
@@ -4956,7 +4959,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4975,13 +4978,13 @@
         <v>222</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G20" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>175</v>
@@ -4994,7 +4997,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5013,13 +5016,13 @@
         <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G22" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>175</v>
@@ -5032,7 +5035,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -5048,16 +5051,16 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G24" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>175</v>
@@ -5070,7 +5073,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -5086,16 +5089,16 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="G26" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>175</v>
@@ -5122,16 +5125,16 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" s="3">
-        <v>45991</v>
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>175</v>
